--- a/pta-template.xlsx
+++ b/pta-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t xml:space="preserve">{{name}}</t>
   </si>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">1.</t>
   </si>
   <si>
-    <t xml:space="preserve">pen (blauw of zwart), potlood, geodriehoek/lineaal</t>
+    <t xml:space="preserve">{{tools}}</t>
   </si>
   <si>
     <t xml:space="preserve">tijd (min)</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">2.</t>
   </si>
   <si>
-    <t xml:space="preserve">rekenmachine (niet grafisch)</t>
+    <t xml:space="preserve">{{else.id}}</t>
   </si>
   <si>
-    <t xml:space="preserve">opdracht thuis maken</t>
+    <t xml:space="preserve">{{else.type}}</t>
   </si>
   <si>
-    <t xml:space="preserve">ca. 150 min</t>
+    <t xml:space="preserve">{{else.time}}</t>
   </si>
   <si>
     <t xml:space="preserve">SE 3</t>
@@ -185,19 +185,10 @@
     <t xml:space="preserve">3.</t>
   </si>
   <si>
-    <t xml:space="preserve">De Grote Bosatlas 55e druk</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.</t>
   </si>
   <si>
-    <t xml:space="preserve">aanvullend katern bij GB 55e druk</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet en andere informatiebronnen</t>
   </si>
   <si>
     <t xml:space="preserve">6.</t>
@@ -725,15 +716,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
+      <xdr:colOff>362160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>259560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -746,8 +737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11573280" y="0"/>
-          <a:ext cx="3514680" cy="1743120"/>
+          <a:off x="11574000" y="0"/>
+          <a:ext cx="3513960" cy="1742760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,7 +761,7 @@
   <dimension ref="A1:AO996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1745,12 +1736,10 @@
       <c r="A19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="E19" s="37" t="n">
-        <v>602</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>48</v>
@@ -1791,13 +1780,11 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -1835,13 +1822,11 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
@@ -1879,13 +1864,11 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -1921,7 +1904,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -1959,7 +1942,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -1998,7 +1981,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -2035,7 +2018,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -2365,25 +2348,25 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -2434,13 +2417,13 @@
         <v>46</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V35" s="2"/>
       <c r="AA35" s="2"/>
@@ -2487,13 +2470,13 @@
         <v>47</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V36" s="2"/>
       <c r="AA36" s="2"/>
@@ -2540,11 +2523,11 @@
         <v>48</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V37" s="2"/>
       <c r="AA37" s="2"/>
@@ -2589,11 +2572,11 @@
         <v>49</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V38" s="2"/>
       <c r="AA38" s="2"/>
@@ -2638,11 +2621,11 @@
         <v>50</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V39" s="2"/>
       <c r="AA39" s="2"/>
@@ -2687,7 +2670,7 @@
         <v>51</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -2778,7 +2761,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -2823,7 +2806,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -2868,7 +2851,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -2913,7 +2896,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -2958,7 +2941,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -3041,7 +3024,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -3779,7 +3762,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
